--- a/biology/Médecine/Acinetobacter_baumannii/Acinetobacter_baumannii.xlsx
+++ b/biology/Médecine/Acinetobacter_baumannii/Acinetobacter_baumannii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acinetobacter baumannii est une bactérie à Gram négatif du genre Acinetobacter.
-Il s'agit d'un germe de maladie opportuniste chez l'Homme, particulièrement chez les personnes immuno-déprimées et que l'on trouve aussi comme agent d' infections nosocomiales où sa transmission est manuportée[1]. Il a aussi été isolé du sol et de l'eau dans l'environnement[2].
+Il s'agit d'un germe de maladie opportuniste chez l'Homme, particulièrement chez les personnes immuno-déprimées et que l'on trouve aussi comme agent d' infections nosocomiales où sa transmission est manuportée. Il a aussi été isolé du sol et de l'eau dans l'environnement.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Antibiorésistance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bactérie n’est pas toujours responsable d’infections et peut simplement être présente sur la peau ou les muqueuses des patients. Chez les patients fragilisés, elle est à l’origine d’infections variées parfois sévères (infections pulmonaires, infections de plaies ou de brûlures...). La létalité des infections nosocomiales à Acinetobacter baumannii varie entre 17 et 46 % pour les septicémies et peut atteindre 70 % pour les pneumopathies[1]. En France en 2001, Acinetobacter baumannii représentait 1,2 % des micro-organismes isolés d’infections nosocomiales[3]. En service de réanimation, on l’isolait dans 5 % des infections pulmonaires[1].
-Une souche d’Acinetobacter baumannii responsable d'une épidémie de 12 patients a été identifiée pour la première fois à l'hôpital de Valenciennes en 2003[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bactérie n’est pas toujours responsable d’infections et peut simplement être présente sur la peau ou les muqueuses des patients. Chez les patients fragilisés, elle est à l’origine d’infections variées parfois sévères (infections pulmonaires, infections de plaies ou de brûlures...). La létalité des infections nosocomiales à Acinetobacter baumannii varie entre 17 et 46 % pour les septicémies et peut atteindre 70 % pour les pneumopathies. En France en 2001, Acinetobacter baumannii représentait 1,2 % des micro-organismes isolés d’infections nosocomiales. En service de réanimation, on l’isolait dans 5 % des infections pulmonaires.
+Une souche d’Acinetobacter baumannii responsable d'une épidémie de 12 patients a été identifiée pour la première fois à l'hôpital de Valenciennes en 2003.
 La bactérie a acquis des caractéristiques de résistance aux antibiotiques originales qui la rendent préoccupante mais qui facilitent son identification. Elle produit une enzyme bêta-lactamase à spectre élargi (BLSE) de type VEB-1[Note 1] qui la rend résistante à presque tous les antibiotiques de la famille des bêta-lactamines. La souche reste seulement sensible à deux antibiotiques : la colistine et l’imipénème, même si on note, principalement dans les services de réanimation, l'émergence de souches d'ABRI (« Acinetobacter baumanii résistant à l'imipénème »).
-Par la suite, 6 souches multi-résistantes d’Acinetobacter baumannii New Delhi métallo-bêta-lactamase (NDM-1) positives (possédant le gène bla NDM-1[5]) originaires d'Afrique du Nord émergent en mai 2013 en France[6]. Les auteurs concluent : « L'identification de plusieurs isolats d'A. baumannii qui possèdent le gène bla NDM-1 originaires d'Afrique du nord, sans lien évident avec le sous-continent indien, suggère fortement que le clone A. baumannii NDM-1 producteur est probablement répandu en Afrique du Nord et qu'il pourrait jouer un rôle de réservoir pour NDM-1. »
-En février 2020, la presse belge annonce que 6 cas d'infection par cette bactérie ont été déclarés dans un hôpital d'Hornu entraînant 2 décès[7].
+Par la suite, 6 souches multi-résistantes d’Acinetobacter baumannii New Delhi métallo-bêta-lactamase (NDM-1) positives (possédant le gène bla NDM-1) originaires d'Afrique du Nord émergent en mai 2013 en France. Les auteurs concluent : « L'identification de plusieurs isolats d'A. baumannii qui possèdent le gène bla NDM-1 originaires d'Afrique du nord, sans lien évident avec le sous-continent indien, suggère fortement que le clone A. baumannii NDM-1 producteur est probablement répandu en Afrique du Nord et qu'il pourrait jouer un rôle de réservoir pour NDM-1. »
+En février 2020, la presse belge annonce que 6 cas d'infection par cette bactérie ont été déclarés dans un hôpital d'Hornu entraînant 2 décès.
 </t>
         </is>
       </c>
